--- a/biology/Zoologie/Hirsutisoma/Hirsutisoma.xlsx
+++ b/biology/Zoologie/Hirsutisoma/Hirsutisoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hirsutisoma, unique représentant de la famille des Hirsutisomidae, est un  genre fossile de ricinules.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de Birmanie. Elles datent du Crétacé[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont été découvertes dans de l'ambre de Birmanie. Elles datent du Crétacé.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog (version 23.5, 2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog (version 23.5, 2023) :
 † Hirsutisoma acutiformis Wunderlich, 2017
 † Hirsutisoma bruckschi Wunderlich, 2017
 † Hirsutisoma dentata Wunderlich, 2017
@@ -576,7 +592,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Wunderlich en 2017.
 Ce genre a été décrit par Wunderlich en 2017 dans les Hirsutisomidae.
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wunderlich, 2017 : « New extinct taxa of the arachnid order Ricinulei, based on new fossils preserved in mid Cretaceous Burmese amber. » Beiträge zur Araneologie, vol. 10, p. 48–71.</t>
         </is>
